--- a/natmiOut/OldD0/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.64711060813454</v>
+        <v>6.291738</v>
       </c>
       <c r="H2">
-        <v>5.64711060813454</v>
+        <v>18.875214</v>
       </c>
       <c r="I2">
-        <v>0.5752092944491589</v>
+        <v>0.5742845621220376</v>
       </c>
       <c r="J2">
-        <v>0.5752092944491589</v>
+        <v>0.5742845621220376</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.258611672977641</v>
+        <v>0.7065936666666666</v>
       </c>
       <c r="N2">
-        <v>0.258611672977641</v>
+        <v>2.119781</v>
       </c>
       <c r="O2">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="P2">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="Q2">
-        <v>1.460408721859457</v>
+        <v>4.445702223125999</v>
       </c>
       <c r="R2">
-        <v>1.460408721859457</v>
+        <v>40.01132000813399</v>
       </c>
       <c r="S2">
-        <v>0.001099428692754005</v>
+        <v>0.002979298500976342</v>
       </c>
       <c r="T2">
-        <v>0.001099428692754005</v>
+        <v>0.002979298500976342</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.64711060813454</v>
+        <v>6.291738</v>
       </c>
       <c r="H3">
-        <v>5.64711060813454</v>
+        <v>18.875214</v>
       </c>
       <c r="I3">
-        <v>0.5752092944491589</v>
+        <v>0.5742845621220376</v>
       </c>
       <c r="J3">
-        <v>0.5752092944491589</v>
+        <v>0.5742845621220376</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.866666870709</v>
+        <v>111.9320066666667</v>
       </c>
       <c r="N3">
-        <v>111.866666870709</v>
+        <v>335.79602</v>
       </c>
       <c r="O3">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="P3">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="Q3">
-        <v>631.7234411822335</v>
+        <v>704.24685976092</v>
       </c>
       <c r="R3">
-        <v>631.7234411822335</v>
+        <v>6338.22173784828</v>
       </c>
       <c r="S3">
-        <v>0.4755756842075907</v>
+        <v>0.4719528003222135</v>
       </c>
       <c r="T3">
-        <v>0.4755756842075907</v>
+        <v>0.4719528003222135</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.64711060813454</v>
+        <v>6.291738</v>
       </c>
       <c r="H4">
-        <v>5.64711060813454</v>
+        <v>18.875214</v>
       </c>
       <c r="I4">
-        <v>0.5752092944491589</v>
+        <v>0.5742845621220376</v>
       </c>
       <c r="J4">
-        <v>0.5752092944491589</v>
+        <v>0.5742845621220376</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.177573683283</v>
+        <v>23.563205</v>
       </c>
       <c r="N4">
-        <v>23.177573683283</v>
+        <v>70.689615</v>
       </c>
       <c r="O4">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="P4">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="Q4">
-        <v>130.8863222176874</v>
+        <v>148.25351230029</v>
       </c>
       <c r="R4">
-        <v>130.8863222176874</v>
+        <v>1334.28161070261</v>
       </c>
       <c r="S4">
-        <v>0.09853418154881421</v>
+        <v>0.09935246329884775</v>
       </c>
       <c r="T4">
-        <v>0.09853418154881421</v>
+        <v>0.09935246329884777</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.25062143238331</v>
+        <v>3.730603666666667</v>
       </c>
       <c r="H5">
-        <v>3.25062143238331</v>
+        <v>11.191811</v>
       </c>
       <c r="I5">
-        <v>0.3311051952743992</v>
+        <v>0.3405145117553424</v>
       </c>
       <c r="J5">
-        <v>0.3311051952743992</v>
+        <v>0.3405145117553424</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.258611672977641</v>
+        <v>0.7065936666666666</v>
       </c>
       <c r="N5">
-        <v>0.258611672977641</v>
+        <v>2.119781</v>
       </c>
       <c r="O5">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="P5">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="Q5">
-        <v>0.8406486468456235</v>
+        <v>2.636020923710111</v>
       </c>
       <c r="R5">
-        <v>0.8406486468456235</v>
+        <v>23.724188313391</v>
       </c>
       <c r="S5">
-        <v>0.0006328593009839958</v>
+        <v>0.001766536036916484</v>
       </c>
       <c r="T5">
-        <v>0.0006328593009839958</v>
+        <v>0.001766536036916484</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.25062143238331</v>
+        <v>3.730603666666667</v>
       </c>
       <c r="H6">
-        <v>3.25062143238331</v>
+        <v>11.191811</v>
       </c>
       <c r="I6">
-        <v>0.3311051952743992</v>
+        <v>0.3405145117553424</v>
       </c>
       <c r="J6">
-        <v>0.3311051952743992</v>
+        <v>0.3405145117553424</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>111.866666870709</v>
+        <v>111.9320066666667</v>
       </c>
       <c r="N6">
-        <v>111.866666870709</v>
+        <v>335.79602</v>
       </c>
       <c r="O6">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="P6">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="Q6">
-        <v>363.6361848992106</v>
+        <v>417.5739544880245</v>
       </c>
       <c r="R6">
-        <v>363.6361848992106</v>
+        <v>3758.16559039222</v>
       </c>
       <c r="S6">
-        <v>0.2737535385934697</v>
+        <v>0.2798382334699333</v>
       </c>
       <c r="T6">
-        <v>0.2737535385934697</v>
+        <v>0.2798382334699333</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.25062143238331</v>
+        <v>3.730603666666667</v>
       </c>
       <c r="H7">
-        <v>3.25062143238331</v>
+        <v>11.191811</v>
       </c>
       <c r="I7">
-        <v>0.3311051952743992</v>
+        <v>0.3405145117553424</v>
       </c>
       <c r="J7">
-        <v>0.3311051952743992</v>
+        <v>0.3405145117553424</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.177573683283</v>
+        <v>23.563205</v>
       </c>
       <c r="N7">
-        <v>23.177573683283</v>
+        <v>70.689615</v>
       </c>
       <c r="O7">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="P7">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="Q7">
-        <v>75.34151776552309</v>
+        <v>87.90497897141833</v>
       </c>
       <c r="R7">
-        <v>75.34151776552309</v>
+        <v>791.144810742765</v>
       </c>
       <c r="S7">
-        <v>0.05671879737994547</v>
+        <v>0.05890974224849268</v>
       </c>
       <c r="T7">
-        <v>0.05671879737994547</v>
+        <v>0.05890974224849269</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.919756415649075</v>
+        <v>0.933443</v>
       </c>
       <c r="H8">
-        <v>0.919756415649075</v>
+        <v>2.800329</v>
       </c>
       <c r="I8">
-        <v>0.09368551027644177</v>
+        <v>0.08520092612262004</v>
       </c>
       <c r="J8">
-        <v>0.09368551027644177</v>
+        <v>0.08520092612262004</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.258611672977641</v>
+        <v>0.7065936666666666</v>
       </c>
       <c r="N8">
-        <v>0.258611672977641</v>
+        <v>2.119781</v>
       </c>
       <c r="O8">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="P8">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="Q8">
-        <v>0.2378597453829258</v>
+        <v>0.6595649119943332</v>
       </c>
       <c r="R8">
-        <v>0.2378597453829258</v>
+        <v>5.936084207948999</v>
       </c>
       <c r="S8">
-        <v>0.0001790661922315725</v>
+        <v>0.0004420090809005175</v>
       </c>
       <c r="T8">
-        <v>0.0001790661922315725</v>
+        <v>0.0004420090809005175</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.919756415649075</v>
+        <v>0.933443</v>
       </c>
       <c r="H9">
-        <v>0.919756415649075</v>
+        <v>2.800329</v>
       </c>
       <c r="I9">
-        <v>0.09368551027644177</v>
+        <v>0.08520092612262004</v>
       </c>
       <c r="J9">
-        <v>0.09368551027644177</v>
+        <v>0.08520092612262004</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.866666870709</v>
+        <v>111.9320066666667</v>
       </c>
       <c r="N9">
-        <v>111.866666870709</v>
+        <v>335.79602</v>
       </c>
       <c r="O9">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="P9">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="Q9">
-        <v>102.8900845516124</v>
+        <v>104.4821480989533</v>
       </c>
       <c r="R9">
-        <v>102.8900845516124</v>
+        <v>940.3393328905801</v>
       </c>
       <c r="S9">
-        <v>0.07745798108621159</v>
+        <v>0.07001897373844364</v>
       </c>
       <c r="T9">
-        <v>0.07745798108621159</v>
+        <v>0.07001897373844364</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.919756415649075</v>
+        <v>0.933443</v>
       </c>
       <c r="H10">
-        <v>0.919756415649075</v>
+        <v>2.800329</v>
       </c>
       <c r="I10">
-        <v>0.09368551027644177</v>
+        <v>0.08520092612262004</v>
       </c>
       <c r="J10">
-        <v>0.09368551027644177</v>
+        <v>0.08520092612262004</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.177573683283</v>
+        <v>23.563205</v>
       </c>
       <c r="N10">
-        <v>23.177573683283</v>
+        <v>70.689615</v>
       </c>
       <c r="O10">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="P10">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="Q10">
-        <v>21.3177220943787</v>
+        <v>21.994908764815</v>
       </c>
       <c r="R10">
-        <v>21.3177220943787</v>
+        <v>197.954178883335</v>
       </c>
       <c r="S10">
-        <v>0.01604846299799861</v>
+        <v>0.01473994330327587</v>
       </c>
       <c r="T10">
-        <v>0.01604846299799861</v>
+        <v>0.01473994330327588</v>
       </c>
     </row>
   </sheetData>
